--- a/data/data_berlin/Data_description_Berlin.xlsx
+++ b/data/data_berlin/Data_description_Berlin.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="136">
   <si>
     <t>File name</t>
   </si>
@@ -413,6 +413,15 @@
   </si>
   <si>
     <t>Under /animal_data</t>
+  </si>
+  <si>
+    <t>csv file</t>
+  </si>
+  <si>
+    <t>starling individual capture history &amp; their capture locations</t>
+  </si>
+  <si>
+    <t>simulated data for calculating survival</t>
   </si>
 </sst>
 </file>
@@ -542,9 +551,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -582,9 +591,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,7 +628,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,7 +663,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -830,19 +839,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="93.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="83.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.26171875" customWidth="1"/>
+    <col min="3" max="3" width="93.26171875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="83.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -870,7 +879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -881,7 +890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -892,7 +901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -903,7 +912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -917,7 +926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57.95" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -931,7 +940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -945,7 +954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -956,7 +965,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -970,7 +979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -981,7 +990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="72.599999999999994" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -992,7 +1001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1003,7 +1012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="57.95" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1028,7 +1037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -1061,7 +1070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
@@ -1072,7 +1081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>59</v>
       </c>
@@ -1083,7 +1092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>61</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
@@ -1105,7 +1114,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -1116,14 +1125,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1134,7 +1143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1156,12 +1165,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1172,7 +1181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1194,14 +1203,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -1215,7 +1235,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -1229,7 +1249,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -1243,7 +1263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -1257,7 +1277,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -1271,7 +1291,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -1285,7 +1305,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -1299,7 +1319,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -1313,7 +1333,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -1327,7 +1347,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -1341,7 +1361,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -1355,7 +1375,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -1369,7 +1389,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -1383,7 +1403,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -1397,7 +1417,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -1411,7 +1431,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -1425,7 +1445,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>106</v>
       </c>
@@ -1439,7 +1459,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -1453,7 +1473,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -1467,7 +1487,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -1481,7 +1501,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -1495,7 +1515,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -1509,7 +1529,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -1523,7 +1543,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -1537,7 +1557,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -1551,7 +1571,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -1565,7 +1585,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -1579,7 +1599,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>128</v>
       </c>

--- a/data/data_berlin/Data_description_Berlin.xlsx
+++ b/data/data_berlin/Data_description_Berlin.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="138">
   <si>
     <t>File name</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Birds_Berlin_exercise.csv</t>
   </si>
   <si>
-    <t>Data from Planillo et al. (submitted 2019)</t>
-  </si>
-  <si>
     <t>Birds_transects_coordinates_25833.csv</t>
   </si>
   <si>
@@ -415,13 +412,22 @@
     <t>Under /animal_data</t>
   </si>
   <si>
-    <t>csv file</t>
-  </si>
-  <si>
-    <t>starling individual capture history &amp; their capture locations</t>
-  </si>
-  <si>
-    <t>simulated data for calculating survival</t>
+    <t>R data storage file</t>
+  </si>
+  <si>
+    <t>Berlin_25833.gpkg</t>
+  </si>
+  <si>
+    <t>Umrisslinie Berlin</t>
+  </si>
+  <si>
+    <t>Data from Planillo et al. (2021)</t>
+  </si>
+  <si>
+    <t>fox_spring2019.rds + other species + covEnv_spring2019.rds</t>
+  </si>
+  <si>
+    <t>trapping histories ; paper Louvrier et al. 2021 camera trapping in Berlin; covenv contains location of capture histories and environmental variables</t>
   </si>
 </sst>
 </file>
@@ -512,22 +518,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -551,9 +556,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -591,9 +596,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,7 +633,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,7 +668,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -837,780 +842,792 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.26171875" customWidth="1"/>
-    <col min="3" max="3" width="93.26171875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="83.68359375" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="93.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" t="s">
-        <v>119</v>
-      </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" t="s">
-        <v>125</v>
-      </c>
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
